--- a/secure/26e-Leo.xlsx
+++ b/secure/26e-Leo.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26e-Leo-350319</t>
+    <t>26e-Leo-900414</t>
   </si>
   <si>
-    <t>26e-Leo-117898</t>
+    <t>26e-Leo-802313</t>
   </si>
   <si>
-    <t>26e-Leo-950963</t>
+    <t>26e-Leo-424975</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F4fa1aca"/>
+        <fgColor rgb="F8a73b6a"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:PG503"/>
+  <dimension ref="A1:KD503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1861,11 +1861,14 @@
       </c>
       <c r="M235" s="4"/>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>-0.064</v>
       </c>
       <c r="M236" s="4"/>
+      <c r="JC236" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
@@ -2101,14 +2104,11 @@
       </c>
       <c r="M275" s="4"/>
     </row>
-    <row r="276" spans="1:423" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>0.096</v>
       </c>
       <c r="M276" s="4"/>
-      <c r="PG276" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
@@ -2134,11 +2134,14 @@
       </c>
       <c r="M280" s="4"/>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:290" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>0.116</v>
       </c>
       <c r="M281" s="4"/>
+      <c r="KD281" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
@@ -2560,14 +2563,11 @@
       </c>
       <c r="M351" s="4"/>
     </row>
-    <row r="352" spans="1:343" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>0.4</v>
       </c>
       <c r="M352" s="4"/>
-      <c r="ME352" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
@@ -3133,11 +3133,14 @@
       </c>
       <c r="M446" s="4"/>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>0.78</v>
       </c>
       <c r="M447" s="4"/>
+      <c r="CF447" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
@@ -3271,14 +3274,11 @@
       </c>
       <c r="M469" s="4"/>
     </row>
-    <row r="470" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" s="3">
         <v>0.872</v>
       </c>
       <c r="M470" s="4"/>
-      <c r="BH470" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" s="3">
